--- a/converted_files/834/X220-reinstate-an-employee.xlsx
+++ b/converted_files/834/X220-reinstate-an-employee.xlsx
@@ -2170,7 +2170,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46c10</t>
+          <t>690141eb7c0fb18b049a030e</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
